--- a/Specification_test.xlsx
+++ b/Specification_test.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Книга1" sheetId="1" r:id="rId1"/>
+    <sheet name="Книга2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Книга1!$A$1:$J$124</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
@@ -1550,7 +1551,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4558,4 +4559,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>